--- a/Tables/2_2_3s_sig_chi_square_tests.xlsx
+++ b/Tables/2_2_3s_sig_chi_square_tests.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,52 +481,44 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>FDR corrected p-value</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>One_Week_Post_surgical_Tonal_Audiometry_Pathological_Ear</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="D2" t="n">
         <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="F2" t="n">
-        <v>3.03030303030303</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H2" t="n">
-        <v>96.96969696969697</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>33</v>
+        <v>4.371473494780586</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="inlineStr">
+        <v>0.0436</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Significant</t>
         </is>
@@ -534,35 +526,38 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Mixed HL</t>
+          <t>Temporal_Bone_CT_scan_Findings_Pathological_Ear</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D3" t="n">
-        <v>75.76000000000001</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
+        <v>51</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" t="n">
+        <v>48</v>
+      </c>
+      <c r="H3" t="n">
+        <v>100</v>
+      </c>
+      <c r="I3" t="n">
+        <v>74.35668103448276</v>
+      </c>
+      <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>25</v>
-      </c>
-      <c r="H3" t="n">
-        <v>75.76000000000001</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Significant</t>
         </is>
@@ -570,35 +565,38 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Sensorial HL</t>
+          <t>Surgical_Treatment</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D4" t="n">
-        <v>21.21</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="n">
+        <v>48</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>33.30612244897959</v>
+      </c>
+      <c r="J4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Significant</t>
         </is>
@@ -606,71 +604,38 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Conductive HL</t>
+          <t>One_Week_Post_surgical_Tonal_Audiometry_Pathological_Ear</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>3.03</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>3.03</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
+        <v>32</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>33</v>
+      </c>
+      <c r="J5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Significant</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Normal hearing</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Significant</t>
         </is>
